--- a/hasil analisis.xlsx
+++ b/hasil analisis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wawan\Documents\UiPath\folder github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\uipathproj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCF8F4-070D-44A5-952A-79B3D5944C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CFE805-2638-4A93-9295-9DDFF5C1AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="3210" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,111 +20,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <t>0.064302</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>0.059725</t>
   </si>
   <si>
     <t>(mineral water, spaghetti)</t>
   </si>
   <si>
-    <t>0.060976</t>
+    <t>0.052660</t>
   </si>
   <si>
     <t>(mineral water, chocolate)</t>
   </si>
   <si>
-    <t>0.057650</t>
+    <t>0.050927</t>
+  </si>
+  <si>
+    <t>(eggs, mineral water)</t>
+  </si>
+  <si>
+    <t>0.047994</t>
   </si>
   <si>
     <t>(milk, mineral water)</t>
   </si>
   <si>
-    <t>0.056541</t>
-  </si>
-  <si>
-    <t>(mineral water, eggs)</t>
-  </si>
-  <si>
-    <t>0.047672</t>
-  </si>
-  <si>
-    <t>(eggs, french fries)</t>
-  </si>
-  <si>
-    <t>0.044346</t>
+    <t>0.040928</t>
+  </si>
+  <si>
+    <t>(ground beef, mineral water)</t>
+  </si>
+  <si>
+    <t>0.039195</t>
+  </si>
+  <si>
+    <t>(chocolate, spaghetti)</t>
+  </si>
+  <si>
+    <t>(ground beef, spaghetti)</t>
+  </si>
+  <si>
+    <t>0.036528</t>
+  </si>
+  <si>
+    <t>(eggs, spaghetti)</t>
+  </si>
+  <si>
+    <t>0.036395</t>
+  </si>
+  <si>
+    <t>(french fries, eggs)</t>
+  </si>
+  <si>
+    <t>0.035729</t>
+  </si>
+  <si>
+    <t>(mineral water, frozen vegetables)</t>
+  </si>
+  <si>
+    <t>0.035462</t>
   </si>
   <si>
     <t>(milk, spaghetti)</t>
   </si>
   <si>
-    <t>0.042129</t>
-  </si>
-  <si>
-    <t>(chocolate, eggs)</t>
-  </si>
-  <si>
-    <t>(spaghetti, eggs)</t>
-  </si>
-  <si>
-    <t>0.041020</t>
-  </si>
-  <si>
-    <t>(frozen vegetables, mineral water)</t>
-  </si>
-  <si>
-    <t>0.039911</t>
-  </si>
-  <si>
-    <t>(spaghetti, chocolate)</t>
-  </si>
-  <si>
-    <t>0.035477</t>
-  </si>
-  <si>
-    <t>(milk, chocolate)</t>
-  </si>
-  <si>
-    <t>(spaghetti, french fries)</t>
-  </si>
-  <si>
-    <t>(ground beef, spaghetti)</t>
-  </si>
-  <si>
-    <t>0.034368</t>
-  </si>
-  <si>
-    <t>(mineral water, pancakes)</t>
-  </si>
-  <si>
-    <t>0.033259</t>
-  </si>
-  <si>
-    <t>(mineral water, tomatoes)</t>
-  </si>
-  <si>
-    <t>(chocolate, french fries)</t>
-  </si>
-  <si>
-    <t>0.032151</t>
-  </si>
-  <si>
-    <t>(ground beef, mineral water)</t>
-  </si>
-  <si>
-    <t>(milk, french fries)</t>
-  </si>
-  <si>
-    <t>0.031042</t>
-  </si>
-  <si>
-    <t>(shrimp, mineral water)</t>
-  </si>
-  <si>
-    <t>(mineral water, french fries)</t>
-  </si>
-  <si>
-    <t>(shrimp, spaghetti)</t>
+    <t>0.034395</t>
+  </si>
+  <si>
+    <t>(french fries, chocolate)</t>
   </si>
 </sst>
 </file>
@@ -185,20 +149,20 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984F227C-F95E-4DA9-99FC-7CF103C42A83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3F1027-35F5-4EE8-8338-DFADA5E10DB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -518,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -540,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -548,7 +512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -556,7 +520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -564,7 +528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -572,23 +536,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -596,7 +560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -604,7 +568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -612,84 +576,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/hasil analisis.xlsx
+++ b/hasil analisis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\uipathproj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wawan\Documents\UiPath\folder github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CFE805-2638-4A93-9295-9DDFF5C1AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A70A69-8B32-4C95-A6B0-10B8F9ADF727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="3210" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,18 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>0.059725</t>
   </si>
   <si>
-    <t>(mineral water, spaghetti)</t>
+    <t>(spaghetti, mineral water)</t>
   </si>
   <si>
     <t>0.052660</t>
   </si>
   <si>
-    <t>(mineral water, chocolate)</t>
+    <t>(chocolate, mineral water)</t>
   </si>
   <si>
     <t>0.050927</t>
@@ -49,7 +49,7 @@
     <t>0.040928</t>
   </si>
   <si>
-    <t>(ground beef, mineral water)</t>
+    <t>(mineral water, ground beef)</t>
   </si>
   <si>
     <t>0.039195</t>
@@ -58,19 +58,19 @@
     <t>(chocolate, spaghetti)</t>
   </si>
   <si>
-    <t>(ground beef, spaghetti)</t>
+    <t>(spaghetti, ground beef)</t>
   </si>
   <si>
     <t>0.036528</t>
   </si>
   <si>
-    <t>(eggs, spaghetti)</t>
+    <t>(spaghetti, eggs)</t>
   </si>
   <si>
     <t>0.036395</t>
   </si>
   <si>
-    <t>(french fries, eggs)</t>
+    <t>(eggs, french fries)</t>
   </si>
   <si>
     <t>0.035729</t>
@@ -88,7 +88,124 @@
     <t>0.034395</t>
   </si>
   <si>
-    <t>(french fries, chocolate)</t>
+    <t>(chocolate, french fries)</t>
+  </si>
+  <si>
+    <t>0.033729</t>
+  </si>
+  <si>
+    <t>(mineral water, french fries)</t>
+  </si>
+  <si>
+    <t>(mineral water, pancakes)</t>
+  </si>
+  <si>
+    <t>0.033196</t>
+  </si>
+  <si>
+    <t>(chocolate, eggs)</t>
+  </si>
+  <si>
+    <t>0.032129</t>
+  </si>
+  <si>
+    <t>(milk, chocolate)</t>
+  </si>
+  <si>
+    <t>0.031063</t>
+  </si>
+  <si>
+    <t>(mineral water, green tea)</t>
+  </si>
+  <si>
+    <t>0.030796</t>
+  </si>
+  <si>
+    <t>(milk, eggs)</t>
+  </si>
+  <si>
+    <t>0.028796</t>
+  </si>
+  <si>
+    <t>(eggs, burgers)</t>
+  </si>
+  <si>
+    <t>0.028530</t>
+  </si>
+  <si>
+    <t>(green tea, french fries)</t>
+  </si>
+  <si>
+    <t>0.027863</t>
+  </si>
+  <si>
+    <t>(spaghetti, frozen vegetables)</t>
+  </si>
+  <si>
+    <t>0.027596</t>
+  </si>
+  <si>
+    <t>(mineral water, olive oil)</t>
+  </si>
+  <si>
+    <t>(spaghetti, french fries)</t>
+  </si>
+  <si>
+    <t>0.027463</t>
+  </si>
+  <si>
+    <t>(mineral water, cake)</t>
+  </si>
+  <si>
+    <t>0.026530</t>
+  </si>
+  <si>
+    <t>(spaghetti, green tea)</t>
+  </si>
+  <si>
+    <t>0.025463</t>
+  </si>
+  <si>
+    <t>(eggs, green tea)</t>
+  </si>
+  <si>
+    <t>0.025197</t>
+  </si>
+  <si>
+    <t>(spaghetti, pancakes)</t>
+  </si>
+  <si>
+    <t>0.024397</t>
+  </si>
+  <si>
+    <t>(tomatoes, mineral water)</t>
+  </si>
+  <si>
+    <t>0.023997</t>
+  </si>
+  <si>
+    <t>(mineral water, low fat yogurt)</t>
+  </si>
+  <si>
+    <t>0.023730</t>
+  </si>
+  <si>
+    <t>(milk, french fries)</t>
+  </si>
+  <si>
+    <t>0.023597</t>
+  </si>
+  <si>
+    <t>(mineral water, shrimp)</t>
+  </si>
+  <si>
+    <t>(milk, frozen vegetables)</t>
+  </si>
+  <si>
+    <t>0.023464</t>
+  </si>
+  <si>
+    <t>(chocolate, green tea)</t>
   </si>
 </sst>
 </file>
@@ -149,20 +266,20 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3F1027-35F5-4EE8-8338-DFADA5E10DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37967B1A-CB28-420D-B788-F40E84ACB67A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -482,13 +599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -504,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -512,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -520,7 +637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -528,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -536,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -544,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -552,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -560,7 +677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -568,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -576,12 +693,180 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/hasil analisis.xlsx
+++ b/hasil analisis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\uipathproj2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wawan\Documents\UiPath\folder github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CFE805-2638-4A93-9295-9DDFF5C1AF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C3AE51-DE4E-407E-B38F-D67E1B5F1F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="3210" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -20,30 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>0.059725</t>
   </si>
   <si>
-    <t>(mineral water, spaghetti)</t>
+    <t>(spaghetti, mineral water)</t>
   </si>
   <si>
     <t>0.052660</t>
   </si>
   <si>
-    <t>(mineral water, chocolate)</t>
+    <t>(chocolate, mineral water)</t>
   </si>
   <si>
     <t>0.050927</t>
   </si>
   <si>
-    <t>(eggs, mineral water)</t>
+    <t>(mineral water, eggs)</t>
   </si>
   <si>
     <t>0.047994</t>
   </si>
   <si>
-    <t>(milk, mineral water)</t>
+    <t>(mineral water, milk)</t>
   </si>
   <si>
     <t>0.040928</t>
@@ -55,16 +55,16 @@
     <t>0.039195</t>
   </si>
   <si>
-    <t>(chocolate, spaghetti)</t>
-  </si>
-  <si>
-    <t>(ground beef, spaghetti)</t>
+    <t>(spaghetti, chocolate)</t>
+  </si>
+  <si>
+    <t>(spaghetti, ground beef)</t>
   </si>
   <si>
     <t>0.036528</t>
   </si>
   <si>
-    <t>(eggs, spaghetti)</t>
+    <t>(spaghetti, eggs)</t>
   </si>
   <si>
     <t>0.036395</t>
@@ -76,19 +76,79 @@
     <t>0.035729</t>
   </si>
   <si>
-    <t>(mineral water, frozen vegetables)</t>
+    <t>(frozen vegetables, mineral water)</t>
   </si>
   <si>
     <t>0.035462</t>
   </si>
   <si>
-    <t>(milk, spaghetti)</t>
+    <t>(spaghetti, milk)</t>
   </si>
   <si>
     <t>0.034395</t>
   </si>
   <si>
     <t>(french fries, chocolate)</t>
+  </si>
+  <si>
+    <t>0.033729</t>
+  </si>
+  <si>
+    <t>(french fries, mineral water)</t>
+  </si>
+  <si>
+    <t>(mineral water, pancakes)</t>
+  </si>
+  <si>
+    <t>0.033196</t>
+  </si>
+  <si>
+    <t>(chocolate, eggs)</t>
+  </si>
+  <si>
+    <t>0.032129</t>
+  </si>
+  <si>
+    <t>(chocolate, milk)</t>
+  </si>
+  <si>
+    <t>0.031063</t>
+  </si>
+  <si>
+    <t>(green tea, mineral water)</t>
+  </si>
+  <si>
+    <t>0.030796</t>
+  </si>
+  <si>
+    <t>(eggs, milk)</t>
+  </si>
+  <si>
+    <t>0.028796</t>
+  </si>
+  <si>
+    <t>(burgers, eggs)</t>
+  </si>
+  <si>
+    <t>0.028530</t>
+  </si>
+  <si>
+    <t>(green tea, french fries)</t>
+  </si>
+  <si>
+    <t>0.027863</t>
+  </si>
+  <si>
+    <t>(spaghetti, frozen vegetables)</t>
+  </si>
+  <si>
+    <t>0.027596</t>
+  </si>
+  <si>
+    <t>(olive oil, mineral water)</t>
+  </si>
+  <si>
+    <t>(spaghetti, french fries)</t>
   </si>
 </sst>
 </file>
@@ -149,20 +209,20 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E3F1027-35F5-4EE8-8338-DFADA5E10DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CEEE76-94CC-446F-B690-5665828F44F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -482,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -504,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -512,7 +572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -520,7 +580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -528,7 +588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -536,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -544,7 +604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -552,7 +612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -560,7 +620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -568,7 +628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -576,12 +636,100 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
